--- a/data/cluster_weights.xlsx
+++ b/data/cluster_weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\purms4-fs\userdata$\u_m1s1v\Desktop\для хакатона МФТИ\для участников\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillanpilov/Alfa-hak/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9164CFCE-DED1-498D-8FE5-3F041F061143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14427B4-E7D1-FE43-AAD1-C6C965D6FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,17 +496,17 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -561,7 +561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -572,7 +572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -594,7 +594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -605,7 +605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -627,7 +627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -638,7 +638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -649,7 +649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -671,7 +671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -682,7 +682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -693,7 +693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
